--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-936923.7256080807</v>
+        <v>-937635.9903618254</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1776483877525582</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="C11" t="n">
-        <v>172.0637335316378</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.87039510700842</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294975</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013692</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692364</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V11" t="n">
-        <v>139.9092714486844</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>158.5573116704627</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.376387674824883</v>
+        <v>9.376387674824855</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050416</v>
+        <v>13.44964351050413</v>
       </c>
       <c r="T12" t="n">
-        <v>188.4860450762373</v>
+        <v>36.82929343736541</v>
       </c>
       <c r="U12" t="n">
-        <v>135.3660233162416</v>
+        <v>59.08630782930755</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586121</v>
+        <v>145.8643436239318</v>
       </c>
       <c r="W12" t="n">
-        <v>88.56281972747055</v>
+        <v>88.56281972747053</v>
       </c>
       <c r="X12" t="n">
-        <v>188.4860450762373</v>
+        <v>39.17115058992954</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448458</v>
+        <v>45.24252228448455</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28944752386643</v>
+        <v>25.2894475238664</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345544</v>
+        <v>57.29676508345541</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433099</v>
+        <v>45.61991340433097</v>
       </c>
       <c r="U13" t="n">
         <v>110.5147946356656</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490887</v>
+        <v>66.96725133490884</v>
       </c>
       <c r="W13" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870149</v>
+        <v>43.77769155870146</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462738</v>
+        <v>38.99950896462735</v>
       </c>
     </row>
     <row r="14">
@@ -1607,73 +1607,73 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926863</v>
+        <v>109.6718442688633</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.87039510700842</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.74367530294975</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>181.6409504451651</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="G14" t="n">
-        <v>188.4860450762373</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>62.87039510700848</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16.74367530294981</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>72.00878260204229</v>
-      </c>
-      <c r="V14" t="n">
-        <v>43.25130477470009</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>9.376387674824855</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.9920185820305973</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.80874687541078</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736546</v>
+        <v>36.82929343736541</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930761</v>
+        <v>59.08630782930755</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586124</v>
+        <v>62.50715706586118</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747058</v>
+        <v>88.56281972747053</v>
       </c>
       <c r="X15" t="n">
-        <v>39.1711505899296</v>
+        <v>39.17115058992954</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448461</v>
+        <v>45.24252228448455</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386646</v>
+        <v>25.2894475238664</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345547</v>
+        <v>57.29676508345541</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433102</v>
+        <v>45.61991340433097</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356657</v>
+        <v>110.5147946356656</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490889</v>
+        <v>66.96725133490884</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870152</v>
+        <v>43.77769155870146</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462741</v>
+        <v>38.99950896462735</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.3863065040498</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426079</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>40.44453538049873</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943847</v>
       </c>
       <c r="Y17" t="n">
         <v>84.83363897318173</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.0185085031497</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>183.6448752914587</v>
+        <v>188.4860450762373</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256517</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591066</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695913</v>
       </c>
       <c r="E20" t="n">
-        <v>74.02698361636806</v>
+        <v>74.026983616368</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7473211947454</v>
+        <v>105.7473211947453</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3863065040499</v>
+        <v>121.3863065040498</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426081</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388386</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049873</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943797</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318173</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>18.58174410514267</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.58760086238966</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256517</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591066</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695913</v>
       </c>
       <c r="E23" t="n">
-        <v>74.02698361636806</v>
+        <v>74.026983616368</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7473211947454</v>
+        <v>105.7473211947453</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3863065040499</v>
+        <v>121.3863065040498</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426079</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388386</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049873</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943797</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318173</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9403975200195686</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>7.814086978442478</v>
       </c>
       <c r="W24" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
     </row>
     <row r="25">
@@ -2558,22 +2558,22 @@
         <v>136.7174680290498</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2841302900983</v>
+        <v>124.2841302900982</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9908827095072</v>
+        <v>157.9908827095071</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7112202878845</v>
+        <v>189.7112202878844</v>
       </c>
       <c r="G26" t="n">
-        <v>205.350205597189</v>
+        <v>205.3502055971889</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5340040774</v>
+        <v>133.5340040773999</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442049</v>
+        <v>27.52412960442044</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754897</v>
+        <v>14.03037772754891</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335711</v>
+        <v>8.978123394335654</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945425</v>
       </c>
       <c r="V26" t="n">
         <v>107.391754257023</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4084344736379</v>
+        <v>124.4084344736378</v>
       </c>
       <c r="X26" t="n">
         <v>146.2946849425771</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.7975380663209</v>
+        <v>168.7975380663208</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>127.2035237302862</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>117.8232965168982</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777481</v>
+        <v>1.483027934777424</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671962</v>
+        <v>23.74004232671956</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327325</v>
+        <v>27.1608915632732</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488254</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341613</v>
+        <v>3.824885087341556</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896625</v>
+        <v>9.896256781896568</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086749</v>
+        <v>21.95049958086743</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174298</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307767</v>
+        <v>75.16852913307761</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232086</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720628</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113537</v>
+        <v>8.43142605611348</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039427</v>
+        <v>3.65324346203937</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.5992110257044</v>
+        <v>160.5992110257043</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7174680290499</v>
+        <v>136.7174680290498</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2841302900983</v>
+        <v>124.2841302900982</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9908827095072</v>
+        <v>157.9908827095071</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7112202878845</v>
+        <v>189.7112202878844</v>
       </c>
       <c r="G29" t="n">
-        <v>205.350205597189</v>
+        <v>205.3502055971889</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5340040774</v>
+        <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442053</v>
+        <v>27.52412960442044</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.030377727549</v>
+        <v>14.03037772754891</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335748</v>
+        <v>8.978123394335663</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945433</v>
+        <v>36.66251709945425</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3917542570231</v>
+        <v>107.391754257023</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4084344736379</v>
+        <v>124.4084344736378</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2946849425772</v>
+        <v>146.2946849425771</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.7975380663209</v>
+        <v>168.7975380663208</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.576913597946056</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7218599774646</v>
+        <v>50.55984329074391</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9710572869065</v>
+        <v>1.483027934777424</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671965</v>
+        <v>23.74004232671956</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327328</v>
+        <v>27.1608915632732</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21655422488263</v>
+        <v>53.21655422488254</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341642</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896653</v>
+        <v>9.896256781896568</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086751</v>
+        <v>21.95049958086743</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174307</v>
+        <v>10.27364790174298</v>
       </c>
       <c r="U31" t="n">
-        <v>75.1685291330777</v>
+        <v>75.16852913307761</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232094</v>
+        <v>31.62098583232086</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720636</v>
+        <v>76.82267773720628</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113565</v>
+        <v>8.43142605611348</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039455</v>
+        <v>3.65324346203937</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.6893265664837</v>
+        <v>159.6893265664838</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8075835698292</v>
+        <v>135.8075835698293</v>
       </c>
       <c r="D32" t="n">
         <v>123.3742458308777</v>
@@ -3047,7 +3047,7 @@
         <v>132.6241196181794</v>
       </c>
       <c r="I32" t="n">
-        <v>26.6142451451999</v>
+        <v>26.61424514519993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832837</v>
+        <v>13.1204932683284</v>
       </c>
       <c r="T32" t="n">
-        <v>8.068238935115119</v>
+        <v>8.068238935115147</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023371</v>
+        <v>35.75263264023374</v>
       </c>
       <c r="V32" t="n">
-        <v>106.4818697978024</v>
+        <v>106.4818697978025</v>
       </c>
       <c r="W32" t="n">
         <v>123.4985500144173</v>
       </c>
       <c r="X32" t="n">
-        <v>145.3848004833565</v>
+        <v>145.3848004833566</v>
       </c>
       <c r="Y32" t="n">
         <v>167.8876536071003</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755568885</v>
+        <v>0.5731434755569169</v>
       </c>
       <c r="U33" t="n">
-        <v>22.83015786749903</v>
+        <v>177.1444235098748</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405266</v>
+        <v>26.25100710405269</v>
       </c>
       <c r="W33" t="n">
-        <v>203.714690828434</v>
+        <v>52.30666976566204</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628121021</v>
+        <v>2.915000628121049</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.986372322676033</v>
+        <v>8.986372322676061</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164689</v>
+        <v>21.04061512164692</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522449</v>
+        <v>9.363763442522478</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385708</v>
+        <v>74.25864467385711</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310032</v>
+        <v>30.71110137310035</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798574</v>
+        <v>75.91279327798577</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892945</v>
+        <v>7.521541596892973</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818835</v>
+        <v>2.743359002818863</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0281659433314</v>
+        <v>102.0281659433315</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14642294667686</v>
+        <v>78.14642294667698</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71308520772533</v>
+        <v>65.71308520772544</v>
       </c>
       <c r="E35" t="n">
-        <v>99.4198376271342</v>
+        <v>99.41983762713431</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1401752055115</v>
+        <v>131.1401752055116</v>
       </c>
       <c r="G35" t="n">
-        <v>146.779160514816</v>
+        <v>146.7791605148161</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96295899502701</v>
+        <v>74.96295899502712</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82070917465006</v>
+        <v>48.82070917465018</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83738939126494</v>
+        <v>65.83738939126505</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72363986020417</v>
+        <v>87.72363986020429</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2264929839479</v>
+        <v>110.226492983948</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>23.85845420728216</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>17.13761814207909</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I36" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47830382393112</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.5974840507047</v>
+        <v>16.59748405070482</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25163265483337</v>
+        <v>18.25163265483349</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0281659433314</v>
+        <v>102.0281659433315</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14642294667686</v>
+        <v>78.14642294667698</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71308520772533</v>
+        <v>65.71308520772544</v>
       </c>
       <c r="E38" t="n">
-        <v>99.4198376271342</v>
+        <v>99.41983762713431</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1401752055115</v>
+        <v>131.1401752055116</v>
       </c>
       <c r="G38" t="n">
-        <v>146.779160514816</v>
+        <v>146.7791605148161</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96295899502701</v>
+        <v>74.96295899502712</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82070917465006</v>
+        <v>48.82070917465018</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83738939126494</v>
+        <v>65.83738939126505</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72363986020417</v>
+        <v>87.72363986020429</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2264929839479</v>
+        <v>110.226492983948</v>
       </c>
     </row>
     <row r="39">
@@ -3582,22 +3582,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>39.18278185608275</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>165.8912631319771</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.5974840507047</v>
+        <v>16.59748405070482</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25163265483337</v>
+        <v>18.25163265483349</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>109.1933384246293</v>
       </c>
       <c r="D41" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567777</v>
       </c>
       <c r="E41" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F41" t="n">
         <v>162.187090683464</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8260759927685</v>
+        <v>177.8260759927684</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033811</v>
+        <v>9.138387495033783</v>
       </c>
       <c r="V41" t="n">
-        <v>79.86762465260253</v>
+        <v>79.8676246526025</v>
       </c>
       <c r="W41" t="n">
-        <v>96.8843048692174</v>
+        <v>96.88430486921737</v>
       </c>
       <c r="X41" t="n">
         <v>118.7705553381566</v>
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>110.5320935256429</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280716788486</v>
+        <v>59.87879990539827</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69242462046211</v>
+        <v>25.69242462046208</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865714</v>
       </c>
       <c r="V43" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900389</v>
       </c>
       <c r="W43" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278581</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.1933384246293</v>
       </c>
       <c r="D44" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567777</v>
       </c>
       <c r="E44" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F44" t="n">
         <v>162.187090683464</v>
@@ -3992,7 +3992,7 @@
         <v>177.8260759927685</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.138387495033818</v>
+        <v>9.13838749503379</v>
       </c>
       <c r="V44" t="n">
-        <v>79.86762465260253</v>
+        <v>79.8676246526025</v>
       </c>
       <c r="W44" t="n">
-        <v>96.8843048692174</v>
+        <v>96.88430486921737</v>
       </c>
       <c r="X44" t="n">
         <v>118.7705553381566</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>110.1832175689927</v>
+        <v>150.7456376107975</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69242462046211</v>
+        <v>25.69242462046208</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865714</v>
       </c>
       <c r="V46" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900389</v>
       </c>
       <c r="W46" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278581</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4832,10 +4832,10 @@
         <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="U8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="V8" t="n">
         <v>7.065308212205419</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="C9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="E9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="F9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="H9" t="n">
         <v>3.833742919262513</v>
@@ -4884,13 +4884,13 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.763050291303539</v>
       </c>
       <c r="M9" t="n">
-        <v>7.104076250872104</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="N9" t="n">
         <v>10.58577698768566</v>
@@ -4905,28 +4905,28 @@
         <v>10.51508435972668</v>
       </c>
       <c r="R9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="S9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="T9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="U9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="V9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="W9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="X9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.833742919262513</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="K10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="M10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="N10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="O10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="P10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="R10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="S10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="T10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="U10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="V10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="W10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="X10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.8806346481574</v>
+        <v>459.3642222520416</v>
       </c>
       <c r="C11" t="n">
-        <v>15.07888360609898</v>
+        <v>459.3642222520416</v>
       </c>
       <c r="D11" t="n">
-        <v>15.07888360609898</v>
+        <v>459.3642222520416</v>
       </c>
       <c r="E11" t="n">
-        <v>15.07888360609898</v>
+        <v>268.9742777305898</v>
       </c>
       <c r="F11" t="n">
-        <v>15.07888360609898</v>
+        <v>268.9742777305898</v>
       </c>
       <c r="G11" t="n">
-        <v>15.07888360609898</v>
+        <v>78.58433320913798</v>
       </c>
       <c r="H11" t="n">
-        <v>15.07888360609898</v>
+        <v>78.58433320913798</v>
       </c>
       <c r="I11" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4202186115223</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1128385102957</v>
+        <v>178.1412927441935</v>
       </c>
       <c r="L11" t="n">
-        <v>331.823996849332</v>
+        <v>364.7424773696684</v>
       </c>
       <c r="M11" t="n">
-        <v>518.425181474807</v>
+        <v>445.5936009830137</v>
       </c>
       <c r="N11" t="n">
-        <v>593.7421247784691</v>
+        <v>632.1947856084886</v>
       </c>
       <c r="O11" t="n">
-        <v>627.9524198552514</v>
+        <v>666.4050806852708</v>
       </c>
       <c r="P11" t="n">
         <v>666.4050806852708</v>
@@ -5063,28 +5063,28 @@
         <v>753.9441803049491</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9441803049491</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="S11" t="n">
-        <v>704.0687831027906</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="T11" t="n">
-        <v>704.0687831027906</v>
+        <v>692.2592669717435</v>
       </c>
       <c r="U11" t="n">
-        <v>704.0687831027906</v>
+        <v>619.5231229292766</v>
       </c>
       <c r="V11" t="n">
-        <v>562.746286689978</v>
+        <v>619.5231229292766</v>
       </c>
       <c r="W11" t="n">
-        <v>562.746286689978</v>
+        <v>619.5231229292766</v>
       </c>
       <c r="X11" t="n">
-        <v>379.2705791696092</v>
+        <v>459.3642222520416</v>
       </c>
       <c r="Y11" t="n">
-        <v>379.2705791696092</v>
+        <v>459.3642222520416</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.54998226753826</v>
+        <v>185.3300985065065</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07888360609898</v>
+        <v>175.8589998450672</v>
       </c>
       <c r="D12" t="n">
         <v>15.07888360609898</v>
@@ -5121,7 +5121,7 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936461</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L12" t="n">
         <v>170.3626975743616</v>
@@ -5130,7 +5130,7 @@
         <v>352.0310247576278</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6322093831028</v>
+        <v>538.6322093831027</v>
       </c>
       <c r="O12" t="n">
         <v>670.3253369263739</v>
@@ -5142,28 +5142,28 @@
         <v>753.9441803049491</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9441803049491</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="S12" t="n">
-        <v>740.3586818094903</v>
+        <v>604.2759949635665</v>
       </c>
       <c r="T12" t="n">
-        <v>549.9687372880385</v>
+        <v>567.0746884611772</v>
       </c>
       <c r="U12" t="n">
-        <v>413.235380402946</v>
+        <v>507.3915492396544</v>
       </c>
       <c r="V12" t="n">
-        <v>350.0968379121771</v>
+        <v>360.0538284074</v>
       </c>
       <c r="W12" t="n">
-        <v>260.6394442480654</v>
+        <v>270.5964347432884</v>
       </c>
       <c r="X12" t="n">
-        <v>70.24949972661359</v>
+        <v>231.0296159655818</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.54998226753826</v>
+        <v>185.3300985065065</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.5984783588262</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C13" t="n">
-        <v>15.5984783588262</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D13" t="n">
-        <v>15.5984783588262</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E13" t="n">
-        <v>15.5984783588262</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F13" t="n">
-        <v>54.42121117360964</v>
+        <v>53.90161642088245</v>
       </c>
       <c r="G13" t="n">
-        <v>54.42121117360964</v>
+        <v>53.90161642088245</v>
       </c>
       <c r="H13" t="n">
-        <v>54.42121117360964</v>
+        <v>53.90161642088245</v>
       </c>
       <c r="I13" t="n">
-        <v>54.42121117360964</v>
+        <v>53.90161642088245</v>
       </c>
       <c r="J13" t="n">
-        <v>54.42121117360964</v>
+        <v>111.2228049634679</v>
       </c>
       <c r="K13" t="n">
-        <v>54.42121117360964</v>
+        <v>111.2228049634679</v>
       </c>
       <c r="L13" t="n">
-        <v>54.42121117360964</v>
+        <v>255.7487605694371</v>
       </c>
       <c r="M13" t="n">
-        <v>205.8125456518787</v>
+        <v>255.7487605694371</v>
       </c>
       <c r="N13" t="n">
-        <v>263.0545473697161</v>
+        <v>255.7487605694371</v>
       </c>
       <c r="O13" t="n">
-        <v>402.3069076016767</v>
+        <v>395.0011208013976</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7701116317056</v>
+        <v>513.4643248314266</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7701116317056</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="R13" t="n">
-        <v>495.2252151429517</v>
+        <v>495.2252151429514</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566331</v>
+        <v>437.3496948566328</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461977</v>
+        <v>391.2689742461975</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6378685536061</v>
+        <v>279.637868553606</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365264</v>
+        <v>211.9941803365263</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804735</v>
+        <v>98.69221746804729</v>
       </c>
       <c r="X13" t="n">
-        <v>54.4723270047125</v>
+        <v>54.47232700471248</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609898</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>620.607046285058</v>
+        <v>363.1657249268157</v>
       </c>
       <c r="C14" t="n">
-        <v>620.607046285058</v>
+        <v>189.3639738847573</v>
       </c>
       <c r="D14" t="n">
-        <v>459.3642222520415</v>
+        <v>78.58433320913781</v>
       </c>
       <c r="E14" t="n">
-        <v>459.3642222520415</v>
+        <v>78.58433320913781</v>
       </c>
       <c r="F14" t="n">
-        <v>268.9742777305897</v>
+        <v>78.58433320913781</v>
       </c>
       <c r="G14" t="n">
-        <v>78.58433320913792</v>
+        <v>78.58433320913781</v>
       </c>
       <c r="H14" t="n">
-        <v>78.58433320913792</v>
+        <v>78.58433320913781</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
@@ -5279,19 +5279,19 @@
         <v>115.4202186115223</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1128385102956</v>
+        <v>115.4202186115223</v>
       </c>
       <c r="L14" t="n">
-        <v>331.823996849332</v>
+        <v>162.1313769505587</v>
       </c>
       <c r="M14" t="n">
-        <v>412.6751204626773</v>
+        <v>242.982500563904</v>
       </c>
       <c r="N14" t="n">
-        <v>487.9920637663395</v>
+        <v>429.5836851893789</v>
       </c>
       <c r="O14" t="n">
-        <v>522.2023588431217</v>
+        <v>504.9946117247458</v>
       </c>
       <c r="P14" t="n">
         <v>666.4050806852708</v>
@@ -5309,19 +5309,19 @@
         <v>737.0313769686362</v>
       </c>
       <c r="U14" t="n">
-        <v>664.2952329261692</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="V14" t="n">
-        <v>620.607046285058</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="W14" t="n">
-        <v>620.607046285058</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="X14" t="n">
-        <v>620.607046285058</v>
+        <v>553.5556694482675</v>
       </c>
       <c r="Y14" t="n">
-        <v>620.607046285058</v>
+        <v>363.1657249268157</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.4911578731353</v>
+        <v>228.8075176679227</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07888360609898</v>
+        <v>219.3364190064835</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07888360609898</v>
+        <v>219.3364190064835</v>
       </c>
       <c r="E15" t="n">
-        <v>15.07888360609898</v>
+        <v>219.3364190064835</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07888360609898</v>
+        <v>218.3343800347354</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07888360609898</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07888360609898</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07888360609898</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="J15" t="n">
         <v>15.07888360609898</v>
@@ -5382,25 +5382,25 @@
         <v>753.9441803049491</v>
       </c>
       <c r="S15" t="n">
-        <v>717.7737289156453</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="T15" t="n">
-        <v>680.5724224132559</v>
+        <v>526.3529292811079</v>
       </c>
       <c r="U15" t="n">
-        <v>620.8892831917331</v>
+        <v>466.6697900595851</v>
       </c>
       <c r="V15" t="n">
-        <v>557.7507407009641</v>
+        <v>403.5312475688162</v>
       </c>
       <c r="W15" t="n">
-        <v>468.2933470368524</v>
+        <v>314.0738539047046</v>
       </c>
       <c r="X15" t="n">
-        <v>428.7265282591457</v>
+        <v>274.507035126998</v>
       </c>
       <c r="Y15" t="n">
-        <v>383.0270108000703</v>
+        <v>228.8075176679227</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.59847835882617</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C16" t="n">
-        <v>27.16621540761914</v>
+        <v>26.64662065489201</v>
       </c>
       <c r="D16" t="n">
-        <v>33.56188095249214</v>
+        <v>59.27614311773407</v>
       </c>
       <c r="E16" t="n">
-        <v>69.66284736343499</v>
+        <v>95.37710952867698</v>
       </c>
       <c r="F16" t="n">
-        <v>108.4855801782184</v>
+        <v>134.1998423434605</v>
       </c>
       <c r="G16" t="n">
-        <v>117.832131684348</v>
+        <v>143.5463938495901</v>
       </c>
       <c r="H16" t="n">
-        <v>130.0260794769072</v>
+        <v>155.7403416421494</v>
       </c>
       <c r="I16" t="n">
-        <v>143.1811594876488</v>
+        <v>155.7403416421494</v>
       </c>
       <c r="J16" t="n">
-        <v>200.5023480302342</v>
+        <v>155.7403416421494</v>
       </c>
       <c r="K16" t="n">
-        <v>200.5023480302342</v>
+        <v>155.7403416421494</v>
       </c>
       <c r="L16" t="n">
-        <v>200.5023480302342</v>
+        <v>300.2662972481185</v>
       </c>
       <c r="M16" t="n">
-        <v>351.8936825085032</v>
+        <v>300.2662972481185</v>
       </c>
       <c r="N16" t="n">
-        <v>351.8936825085032</v>
+        <v>300.2662972481185</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8936825085032</v>
+        <v>439.5186574800791</v>
       </c>
       <c r="P16" t="n">
-        <v>470.3568865385321</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317058</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429518</v>
+        <v>495.2252151429514</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566332</v>
+        <v>437.3496948566328</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461978</v>
+        <v>391.2689742461975</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536062</v>
+        <v>279.637868553606</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365265</v>
+        <v>211.9941803365263</v>
       </c>
       <c r="W16" t="n">
-        <v>98.6922174680474</v>
+        <v>98.69221746804729</v>
       </c>
       <c r="X16" t="n">
-        <v>54.47232700471253</v>
+        <v>54.47232700471248</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609898</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417498</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731533</v>
+        <v>410.0798406731526</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135986</v>
+        <v>369.3523344135979</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879743</v>
+        <v>294.5776034879737</v>
       </c>
       <c r="F17" t="n">
-        <v>187.762127533686</v>
+        <v>187.7621275336855</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151395</v>
+        <v>65.14969672151392</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
@@ -5516,28 +5516,28 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K17" t="n">
-        <v>15.07888360609898</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="L17" t="n">
-        <v>131.9537051920853</v>
+        <v>248.3912265706103</v>
       </c>
       <c r="M17" t="n">
-        <v>212.8048288054306</v>
+        <v>329.2423501839556</v>
       </c>
       <c r="N17" t="n">
-        <v>288.1217721090927</v>
+        <v>404.5592934876177</v>
       </c>
       <c r="O17" t="n">
-        <v>322.332067185875</v>
+        <v>493.1070777376588</v>
       </c>
       <c r="P17" t="n">
-        <v>322.332067185875</v>
+        <v>493.1070777376588</v>
       </c>
       <c r="Q17" t="n">
-        <v>508.9332518113499</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="R17" t="n">
-        <v>610.4740762111994</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="S17" t="n">
         <v>679.7082623631337</v>
@@ -5555,10 +5555,10 @@
         <v>689.4266140985021</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515951</v>
+        <v>626.4662243515945</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342399</v>
+        <v>540.7756799342393</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>378.0543617517208</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C18" t="n">
-        <v>188.6420874846845</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D18" t="n">
-        <v>188.6420874846845</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E18" t="n">
         <v>15.07888360609898</v>
@@ -5619,25 +5619,25 @@
         <v>753.9441803049491</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9441803049491</v>
+        <v>586.2487171704545</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9441803049491</v>
+        <v>586.2487171704545</v>
       </c>
       <c r="U18" t="n">
-        <v>563.5542357834972</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="V18" t="n">
-        <v>563.5542357834972</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="W18" t="n">
-        <v>563.5542357834972</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="X18" t="n">
-        <v>563.5542357834972</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="Y18" t="n">
-        <v>378.0543617517208</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07888360609898</v>
+        <v>753.9441803049491</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417491</v>
+        <v>463.3662739417497</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731525</v>
+        <v>410.0798406731532</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135977</v>
+        <v>369.3523344135984</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879734</v>
+        <v>294.5776034879742</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336851</v>
+        <v>187.7621275336859</v>
       </c>
       <c r="G20" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151395</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
@@ -5750,52 +5750,52 @@
         <v>15.07888360609898</v>
       </c>
       <c r="J20" t="n">
-        <v>181.8842827730508</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K20" t="n">
-        <v>368.4854673985257</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="L20" t="n">
-        <v>415.196625737562</v>
+        <v>265.6803923638717</v>
       </c>
       <c r="M20" t="n">
-        <v>496.0477493509073</v>
+        <v>346.531515977217</v>
       </c>
       <c r="N20" t="n">
-        <v>571.3646926545695</v>
+        <v>533.1327006026919</v>
       </c>
       <c r="O20" t="n">
-        <v>605.5749877313517</v>
+        <v>567.3429956794741</v>
       </c>
       <c r="P20" t="n">
-        <v>605.5749877313517</v>
+        <v>567.3429956794741</v>
       </c>
       <c r="Q20" t="n">
-        <v>605.5749877313517</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R20" t="n">
-        <v>707.1158121312012</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S20" t="n">
-        <v>707.1158121312012</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1158121312012</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U20" t="n">
         <v>753.9441803049491</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394097</v>
+        <v>730.2796801394098</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985019</v>
+        <v>689.4266140985021</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515951</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342395</v>
+        <v>540.7756799342397</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>326.1061085727631</v>
+        <v>194.6284383351103</v>
       </c>
       <c r="C21" t="n">
-        <v>326.1061085727631</v>
+        <v>194.6284383351103</v>
       </c>
       <c r="D21" t="n">
-        <v>165.3259923337948</v>
+        <v>33.84832209614208</v>
       </c>
       <c r="E21" t="n">
-        <v>165.3259923337948</v>
+        <v>33.84832209614208</v>
       </c>
       <c r="F21" t="n">
-        <v>165.3259923337948</v>
+        <v>33.84832209614208</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07888360609898</v>
+        <v>33.84832209614208</v>
       </c>
       <c r="H21" t="n">
         <v>15.07888360609898</v>
@@ -5853,28 +5853,28 @@
         <v>753.9441803049491</v>
       </c>
       <c r="R21" t="n">
-        <v>706.8859976156666</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S21" t="n">
-        <v>706.8859976156666</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="T21" t="n">
-        <v>706.8859976156666</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U21" t="n">
-        <v>706.8859976156666</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="V21" t="n">
-        <v>706.8859976156666</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="W21" t="n">
-        <v>516.4960530942149</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="X21" t="n">
-        <v>326.1061085727631</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="Y21" t="n">
-        <v>326.1061085727631</v>
+        <v>373.1642912620454</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417499</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731533</v>
+        <v>410.0798406731526</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135986</v>
+        <v>369.3523344135979</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879743</v>
+        <v>294.5776034879737</v>
       </c>
       <c r="F23" t="n">
-        <v>187.762127533686</v>
+        <v>187.7621275336855</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151402</v>
+        <v>65.14969672151392</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95425539993042</v>
+        <v>70.95425539993046</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95425539993042</v>
+        <v>70.95425539993046</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95425539993042</v>
+        <v>70.95425539993046</v>
       </c>
       <c r="L23" t="n">
-        <v>257.5554400254055</v>
+        <v>117.6654137389669</v>
       </c>
       <c r="M23" t="n">
-        <v>338.4065636387508</v>
+        <v>304.2665983644418</v>
       </c>
       <c r="N23" t="n">
-        <v>413.7235069424129</v>
+        <v>490.8677829899167</v>
       </c>
       <c r="O23" t="n">
-        <v>520.5146275057266</v>
+        <v>525.0780780666989</v>
       </c>
       <c r="P23" t="n">
-        <v>707.1158121312017</v>
+        <v>525.0780780666989</v>
       </c>
       <c r="Q23" t="n">
-        <v>707.1158121312017</v>
+        <v>711.6792626921738</v>
       </c>
       <c r="R23" t="n">
-        <v>707.1158121312017</v>
+        <v>711.6792626921738</v>
       </c>
       <c r="S23" t="n">
-        <v>707.1158121312017</v>
+        <v>711.6792626921738</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1158121312017</v>
+        <v>711.6792626921738</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049497</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394104</v>
+        <v>730.2796801394095</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985026</v>
+        <v>689.4266140985017</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515954</v>
+        <v>626.4662243515946</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342401</v>
+        <v>540.7756799342393</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>366.2211705969718</v>
+        <v>365.2712741121035</v>
       </c>
       <c r="C24" t="n">
-        <v>176.8088963299355</v>
+        <v>175.8589998450672</v>
       </c>
       <c r="D24" t="n">
-        <v>16.02878009096725</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E24" t="n">
-        <v>16.02878009096725</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F24" t="n">
-        <v>16.02878009096725</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G24" t="n">
-        <v>16.02878009096725</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H24" t="n">
-        <v>16.02878009096725</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609941</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K24" t="n">
-        <v>53.036907629365</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L24" t="n">
-        <v>170.362697574362</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0310247576282</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6322093831033</v>
+        <v>538.6322093831027</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3253369263745</v>
+        <v>670.3253369263739</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9441803049497</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0010596398757</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0010596398757</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0010596398757</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0010596398757</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="U24" t="n">
-        <v>747.0010596398757</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="V24" t="n">
-        <v>747.0010596398757</v>
+        <v>555.6612186335553</v>
       </c>
       <c r="W24" t="n">
-        <v>556.6111151184238</v>
+        <v>555.6612186335553</v>
       </c>
       <c r="X24" t="n">
-        <v>556.6111151184238</v>
+        <v>555.6612186335553</v>
       </c>
       <c r="Y24" t="n">
-        <v>366.2211705969718</v>
+        <v>365.2712741121035</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.877441161907</v>
+        <v>1020.877441161905</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073107</v>
+        <v>882.7789886073094</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617569</v>
+        <v>757.2394630617556</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501334</v>
+        <v>597.6527128501323</v>
       </c>
       <c r="F26" t="n">
-        <v>406.025217609846</v>
+        <v>406.025217609845</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116753</v>
+        <v>198.6007675116743</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026093</v>
+        <v>63.71793511026084</v>
       </c>
       <c r="I26" t="n">
         <v>35.91578399468464</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476701</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940055</v>
+        <v>375.9353445940056</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916497</v>
+        <v>633.9996519916498</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636027</v>
+        <v>926.2039246636029</v>
       </c>
       <c r="N26" t="n">
         <v>1212.874017025872</v>
@@ -6251,25 +6251,25 @@
         <v>1795.789199734232</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019536</v>
+        <v>1781.617101019535</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510106</v>
+        <v>1772.548289510105</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.515443955102</v>
+        <v>1735.5154439551</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503564</v>
+        <v>1627.038924503562</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.373839176656</v>
+        <v>1501.373839176655</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.60143014375</v>
+        <v>1353.601430143749</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440394</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>263.3782574828535</v>
+        <v>164.4041918030546</v>
       </c>
       <c r="C27" t="n">
-        <v>263.3782574828535</v>
+        <v>164.4041918030546</v>
       </c>
       <c r="D27" t="n">
-        <v>263.3782574828535</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E27" t="n">
-        <v>263.3782574828535</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F27" t="n">
-        <v>144.3648266577038</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G27" t="n">
-        <v>144.3648266577038</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H27" t="n">
-        <v>144.3648266577038</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I27" t="n">
         <v>35.91578399468464</v>
@@ -6327,28 +6327,28 @@
         <v>793.0763328677681</v>
       </c>
       <c r="R27" t="n">
-        <v>793.0763328677681</v>
+        <v>656.9936460218443</v>
       </c>
       <c r="S27" t="n">
-        <v>599.5496587667124</v>
+        <v>463.4669719207885</v>
       </c>
       <c r="T27" t="n">
-        <v>598.0516507517856</v>
+        <v>461.9689639058618</v>
       </c>
       <c r="U27" t="n">
-        <v>574.0718100177254</v>
+        <v>437.9891231718016</v>
       </c>
       <c r="V27" t="n">
-        <v>546.636566014419</v>
+        <v>410.5538791684954</v>
       </c>
       <c r="W27" t="n">
-        <v>277.2379967447104</v>
+        <v>356.7997839918463</v>
       </c>
       <c r="X27" t="n">
-        <v>273.3744764544663</v>
+        <v>352.9362637016023</v>
       </c>
       <c r="Y27" t="n">
-        <v>263.3782574828535</v>
+        <v>342.9400447299897</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468464</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468464</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91578399468464</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="E28" t="n">
-        <v>107.0095532531896</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="F28" t="n">
-        <v>107.0095532531896</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="G28" t="n">
-        <v>107.0095532531896</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="H28" t="n">
-        <v>154.1963038933109</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="I28" t="n">
-        <v>202.3441867516146</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="J28" t="n">
-        <v>202.3441867516146</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="K28" t="n">
-        <v>202.3441867516146</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="L28" t="n">
-        <v>202.3441867516146</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="M28" t="n">
-        <v>256.1827763203649</v>
+        <v>61.18879544445014</v>
       </c>
       <c r="N28" t="n">
-        <v>256.1827763203649</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="O28" t="n">
-        <v>256.1827763203649</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="P28" t="n">
-        <v>256.1827763203649</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.1827763203649</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192992</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204432</v>
+        <v>243.9668043204428</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974701</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923414</v>
+        <v>157.6615749923412</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627243</v>
+        <v>125.7211852627242</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170784</v>
+        <v>48.12252088170772</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583558</v>
+        <v>39.60592890583552</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91578399468464</v>
@@ -6440,58 +6440,58 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.77898860731</v>
+        <v>882.7789886073103</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617562</v>
+        <v>757.2394630617565</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501327</v>
+        <v>597.6527128501332</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098453</v>
+        <v>406.0252176098459</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116746</v>
+        <v>198.6007675116753</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026094</v>
+        <v>63.71793511026112</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J29" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476703</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940054</v>
+        <v>375.9353445940058</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916494</v>
+        <v>633.99965199165</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636024</v>
+        <v>926.2039246636032</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.874017025872</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.437461161262</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.840732969349</v>
+        <v>1654.84073296935</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.372635436589</v>
+        <v>1777.37263543659</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.789199734231</v>
+        <v>1795.789199734232</v>
       </c>
       <c r="S29" t="n">
         <v>1781.617101019536</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.548289510105</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U29" t="n">
         <v>1735.515443955101</v>
@@ -6500,7 +6500,7 @@
         <v>1627.038924503562</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.373839176655</v>
+        <v>1501.373839176656</v>
       </c>
       <c r="X29" t="n">
         <v>1353.601430143749</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>313.1687966592518</v>
+        <v>398.8912621403065</v>
       </c>
       <c r="C30" t="n">
-        <v>313.1687966592518</v>
+        <v>209.4789878732702</v>
       </c>
       <c r="D30" t="n">
-        <v>313.1687966592518</v>
+        <v>209.4789878732702</v>
       </c>
       <c r="E30" t="n">
-        <v>313.1687966592518</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F30" t="n">
-        <v>313.1687966592518</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G30" t="n">
-        <v>162.9216879315559</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K30" t="n">
-        <v>73.87380801795022</v>
+        <v>73.87380801795024</v>
       </c>
       <c r="L30" t="n">
-        <v>191.1995979629472</v>
+        <v>191.1995979629473</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462134</v>
+        <v>372.8679251462135</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7643619459216</v>
+        <v>577.7643619459217</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4574894891928</v>
+        <v>709.4574894891929</v>
       </c>
       <c r="P30" t="n">
-        <v>793.076332867768</v>
+        <v>793.0763328677681</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.076332867768</v>
+        <v>786.1332122026942</v>
       </c>
       <c r="R30" t="n">
-        <v>656.9936460218441</v>
+        <v>735.062663424165</v>
       </c>
       <c r="S30" t="n">
-        <v>656.9936460218441</v>
+        <v>735.062663424165</v>
       </c>
       <c r="T30" t="n">
-        <v>439.8511639138578</v>
+        <v>733.5646554092383</v>
       </c>
       <c r="U30" t="n">
-        <v>415.8713231797976</v>
+        <v>709.5848146751781</v>
       </c>
       <c r="V30" t="n">
-        <v>388.4360791764912</v>
+        <v>682.1495706718719</v>
       </c>
       <c r="W30" t="n">
-        <v>334.6819839998421</v>
+        <v>628.3954754952229</v>
       </c>
       <c r="X30" t="n">
-        <v>330.818463709598</v>
+        <v>408.8874811119192</v>
       </c>
       <c r="Y30" t="n">
-        <v>320.8222447379852</v>
+        <v>398.8912621403065</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H31" t="n">
-        <v>83.10253463480592</v>
+        <v>76.66401786683321</v>
       </c>
       <c r="I31" t="n">
-        <v>83.10253463480592</v>
+        <v>76.66401786683321</v>
       </c>
       <c r="J31" t="n">
-        <v>83.10253463480592</v>
+        <v>76.66401786683321</v>
       </c>
       <c r="K31" t="n">
-        <v>83.10253463480592</v>
+        <v>76.66401786683321</v>
       </c>
       <c r="L31" t="n">
-        <v>256.1827763203651</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="M31" t="n">
-        <v>256.1827763203651</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="N31" t="n">
-        <v>256.1827763203651</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="O31" t="n">
-        <v>256.1827763203651</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="P31" t="n">
-        <v>256.1827763203651</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.1827763203651</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204433</v>
+        <v>243.9668043204428</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974705</v>
+        <v>233.5893821974701</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923415</v>
+        <v>157.6615749923412</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627244</v>
+        <v>125.7211852627242</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170789</v>
+        <v>48.12252088170773</v>
       </c>
       <c r="X31" t="n">
-        <v>39.6059289058356</v>
+        <v>39.60592890583553</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="32">
@@ -6674,70 +6674,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128078</v>
+        <v>1014.162565128079</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848166</v>
+        <v>876.9831877848168</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505966</v>
+        <v>752.3627374505968</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503071</v>
+        <v>593.6950624503073</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213536</v>
+        <v>402.9866424213538</v>
       </c>
       <c r="G32" t="n">
-        <v>196.481267534517</v>
+        <v>196.4812675345173</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443697</v>
+        <v>62.51751034443701</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J32" t="n">
-        <v>149.9761592061436</v>
+        <v>149.9761592061443</v>
       </c>
       <c r="K32" t="n">
-        <v>355.5623675671075</v>
+        <v>355.5623675671081</v>
       </c>
       <c r="L32" t="n">
-        <v>614.52746057938</v>
+        <v>614.5274605793807</v>
       </c>
       <c r="M32" t="n">
-        <v>907.6325188659614</v>
+        <v>907.6325188659621</v>
       </c>
       <c r="N32" t="n">
         <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1441.667626592878</v>
+        <v>1441.667626592879</v>
       </c>
       <c r="P32" t="n">
-        <v>1638.971684015593</v>
+        <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
-        <v>1762.404372097462</v>
+        <v>1762.404372097463</v>
       </c>
       <c r="R32" t="n">
-        <v>1781.721722009732</v>
+        <v>1781.721722009733</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.46869850637</v>
+        <v>1768.468698506371</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208274</v>
+        <v>1760.318962208275</v>
       </c>
       <c r="U32" t="n">
         <v>1724.205191864604</v>
       </c>
       <c r="V32" t="n">
-        <v>1616.647747624399</v>
+        <v>1616.6477476244</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508826</v>
+        <v>1491.901737508827</v>
       </c>
       <c r="X32" t="n">
         <v>1345.048403687254</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>346.3092594506464</v>
+        <v>385.8268249461992</v>
       </c>
       <c r="C33" t="n">
-        <v>346.3092594506464</v>
+        <v>196.4145506791629</v>
       </c>
       <c r="D33" t="n">
-        <v>346.3092594506464</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="E33" t="n">
-        <v>346.3092594506464</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="F33" t="n">
-        <v>185.8815431678905</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="G33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="H33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="I33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="K33" t="n">
         <v>73.59245846346025</v>
@@ -6801,28 +6801,28 @@
         <v>792.7949833132781</v>
       </c>
       <c r="R33" t="n">
-        <v>792.7949833132781</v>
+        <v>656.7122964673542</v>
       </c>
       <c r="S33" t="n">
-        <v>792.7949833132781</v>
+        <v>656.7122964673542</v>
       </c>
       <c r="T33" t="n">
-        <v>792.2160505096853</v>
+        <v>656.1333636637614</v>
       </c>
       <c r="U33" t="n">
-        <v>769.1552849869589</v>
+        <v>477.1996025426758</v>
       </c>
       <c r="V33" t="n">
-        <v>742.6391161949865</v>
+        <v>450.6834337507034</v>
       </c>
       <c r="W33" t="n">
-        <v>536.8667012167704</v>
+        <v>397.8484137853882</v>
       </c>
       <c r="X33" t="n">
-        <v>533.9222561378602</v>
+        <v>394.903968706478</v>
       </c>
       <c r="Y33" t="n">
-        <v>524.8451123775815</v>
+        <v>385.8268249461992</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="C34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="D34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="E34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="F34" t="n">
-        <v>35.63443444019465</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="G34" t="n">
-        <v>35.63443444019465</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="H34" t="n">
-        <v>35.63443444019465</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="I34" t="n">
-        <v>84.68310291312667</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="J34" t="n">
-        <v>177.8978799179026</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="K34" t="n">
-        <v>177.8978799179026</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="L34" t="n">
-        <v>177.8978799179026</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="M34" t="n">
-        <v>177.8978799179026</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="N34" t="n">
-        <v>177.8978799179026</v>
+        <v>73.42116597775822</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854717</v>
+        <v>248.5671146719093</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854717</v>
+        <v>248.5671146719093</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854717</v>
+        <v>248.5671146719093</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854717</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979496</v>
+        <v>238.1710034979498</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863107</v>
+        <v>228.7126565863109</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925157</v>
+        <v>153.7039245925158</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742325</v>
+        <v>122.6826100742327</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090454998</v>
+        <v>46.00302090455005</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001165</v>
+        <v>38.40550414001169</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.02037563797</v>
+        <v>623.0203756379703</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837509</v>
+        <v>544.0845948837512</v>
       </c>
       <c r="D35" t="n">
-        <v>477.707741138574</v>
+        <v>477.7077411385742</v>
       </c>
       <c r="E35" t="n">
         <v>377.2836627273273</v>
@@ -6926,61 +6926,61 @@
         <v>244.8188392874167</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962304</v>
+        <v>96.55706098962317</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57334671175859</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J35" t="n">
-        <v>51.57334671175859</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K35" t="n">
-        <v>80.27981075283265</v>
+        <v>137.014728885231</v>
       </c>
       <c r="L35" t="n">
-        <v>338.13645306158</v>
+        <v>394.8713711939786</v>
       </c>
       <c r="M35" t="n">
-        <v>418.9875766749253</v>
+        <v>475.7224948073239</v>
       </c>
       <c r="N35" t="n">
-        <v>676.8442189836727</v>
+        <v>551.039438110986</v>
       </c>
       <c r="O35" t="n">
-        <v>711.0545140604549</v>
+        <v>585.2497331877682</v>
       </c>
       <c r="P35" t="n">
-        <v>965.4431205000913</v>
+        <v>839.6383396274044</v>
       </c>
       <c r="Q35" t="n">
-        <v>965.4431205000913</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.845019429282</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.845019429282</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.845019429282</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.845019429282</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781201</v>
+        <v>992.531171778121</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0287582515898</v>
+        <v>926.0287582515905</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190603</v>
+        <v>837.4190210190609</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160825</v>
+        <v>726.079129116083</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>360.3851723875531</v>
+        <v>510.8182824710788</v>
       </c>
       <c r="C36" t="n">
-        <v>360.3851723875531</v>
+        <v>321.4060082040425</v>
       </c>
       <c r="D36" t="n">
-        <v>199.6050561485849</v>
+        <v>321.4060082040425</v>
       </c>
       <c r="E36" t="n">
-        <v>182.2943307525454</v>
+        <v>147.842804325457</v>
       </c>
       <c r="F36" t="n">
-        <v>182.2943307525454</v>
+        <v>147.842804325457</v>
       </c>
       <c r="G36" t="n">
-        <v>182.2943307525454</v>
+        <v>147.842804325457</v>
       </c>
       <c r="H36" t="n">
-        <v>182.2943307525454</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84528808952618</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185124</v>
+        <v>58.79492441185126</v>
       </c>
       <c r="L36" t="n">
         <v>176.1207143568483</v>
@@ -7035,31 +7035,31 @@
         <v>777.9974492616691</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.0543285965952</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="R36" t="n">
-        <v>771.0543285965952</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="S36" t="n">
-        <v>577.5276544955394</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="T36" t="n">
-        <v>360.3851723875531</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="U36" t="n">
-        <v>360.3851723875531</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="V36" t="n">
-        <v>360.3851723875531</v>
+        <v>534.9177311653032</v>
       </c>
       <c r="W36" t="n">
-        <v>360.3851723875531</v>
+        <v>534.9177311653032</v>
       </c>
       <c r="X36" t="n">
-        <v>360.3851723875531</v>
+        <v>534.9177311653032</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.3851723875531</v>
+        <v>534.9177311653032</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27289296922542</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27289296922542</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379706</v>
+        <v>623.0203756379709</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837515</v>
+        <v>544.0845948837517</v>
       </c>
       <c r="D38" t="n">
         <v>477.7077411385744</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273277</v>
+        <v>377.2836627273276</v>
       </c>
       <c r="F38" t="n">
-        <v>244.818839287417</v>
+        <v>244.8188392874168</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962304</v>
+        <v>96.55706098962317</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J38" t="n">
-        <v>91.35508916371009</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K38" t="n">
-        <v>91.35508916371009</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L38" t="n">
-        <v>349.2117314724575</v>
+        <v>67.54805872762208</v>
       </c>
       <c r="M38" t="n">
-        <v>430.0628550858028</v>
+        <v>148.3991823409674</v>
       </c>
       <c r="N38" t="n">
-        <v>505.3797983894649</v>
+        <v>406.255824649715</v>
       </c>
       <c r="O38" t="n">
-        <v>763.2364406982123</v>
+        <v>530.5372769616666</v>
       </c>
       <c r="P38" t="n">
-        <v>763.2364406982123</v>
+        <v>784.9258834013028</v>
       </c>
       <c r="Q38" t="n">
-        <v>943.7536777970018</v>
+        <v>965.4431205000923</v>
       </c>
       <c r="R38" t="n">
-        <v>1020.155576726193</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.155576726193</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.155576726193</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.845019429282</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781206</v>
+        <v>992.5311717781213</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515903</v>
+        <v>926.0287582515909</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190608</v>
+        <v>837.4190210190613</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160831</v>
+        <v>726.0791291160835</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>560.8549671536828</v>
+        <v>147.842804325457</v>
       </c>
       <c r="C39" t="n">
-        <v>371.4426928866465</v>
+        <v>147.842804325457</v>
       </c>
       <c r="D39" t="n">
-        <v>210.6625766476782</v>
+        <v>147.842804325457</v>
       </c>
       <c r="E39" t="n">
-        <v>210.6625766476782</v>
+        <v>147.842804325457</v>
       </c>
       <c r="F39" t="n">
-        <v>171.0840091162815</v>
+        <v>147.842804325457</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858565</v>
+        <v>147.842804325457</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185124</v>
+        <v>58.79492441185126</v>
       </c>
       <c r="L39" t="n">
         <v>176.1207143568483</v>
@@ -7281,22 +7281,22 @@
         <v>777.9974492616691</v>
       </c>
       <c r="T39" t="n">
-        <v>560.8549671536828</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="U39" t="n">
-        <v>560.8549671536828</v>
+        <v>610.4305168051266</v>
       </c>
       <c r="V39" t="n">
-        <v>560.8549671536828</v>
+        <v>367.3507987087606</v>
       </c>
       <c r="W39" t="n">
-        <v>560.8549671536828</v>
+        <v>367.3507987087606</v>
       </c>
       <c r="X39" t="n">
-        <v>560.8549671536828</v>
+        <v>147.842804325457</v>
       </c>
       <c r="Y39" t="n">
-        <v>560.8549671536828</v>
+        <v>147.842804325457</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27289296922542</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27289296922542</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4119981543693</v>
+        <v>818.4119981543697</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153497</v>
+        <v>708.1156967153501</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3783222853722</v>
+        <v>610.3783222853726</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893249</v>
+        <v>478.5937231893256</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7683790646138</v>
+        <v>314.7683790646147</v>
       </c>
       <c r="G41" t="n">
         <v>135.1460800820201</v>
@@ -7409,31 +7409,31 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06539879618224</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="K41" t="n">
-        <v>259.999709850894</v>
+        <v>422.5827360122557</v>
       </c>
       <c r="L41" t="n">
-        <v>306.7108681899304</v>
+        <v>469.2938943512921</v>
       </c>
       <c r="M41" t="n">
-        <v>626.1640291702597</v>
+        <v>788.7470553316214</v>
       </c>
       <c r="N41" t="n">
-        <v>940.0830098409058</v>
+        <v>864.0639986352835</v>
       </c>
       <c r="O41" t="n">
-        <v>974.293304917688</v>
+        <v>1136.87633107905</v>
       </c>
       <c r="P41" t="n">
-        <v>1197.945465034151</v>
+        <v>1194.464882069375</v>
       </c>
       <c r="Q41" t="n">
-        <v>1347.726255809768</v>
+        <v>1344.245672844991</v>
       </c>
       <c r="R41" t="n">
-        <v>1393.391708415786</v>
+        <v>1389.911125451009</v>
       </c>
       <c r="S41" t="n">
         <v>1403.269939809112</v>
@@ -7445,16 +7445,16 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.50194282239</v>
+        <v>1215.501942822391</v>
       </c>
       <c r="X41" t="n">
         <v>1095.531684905061</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8312723172822</v>
+        <v>952.8312723172827</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>300.1416943977694</v>
+        <v>505.2636932390581</v>
       </c>
       <c r="C42" t="n">
-        <v>188.4931150789382</v>
+        <v>315.8514189720218</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4931150789382</v>
+        <v>155.0713027330536</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4931150789382</v>
+        <v>155.0713027330536</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06539879618224</v>
+        <v>155.0713027330536</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06539879618224</v>
+        <v>155.0713027330536</v>
       </c>
       <c r="H42" t="n">
         <v>28.06539879618224</v>
@@ -7515,25 +7515,25 @@
         <v>785.2259476692657</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2259476692657</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2259476692657</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="U42" t="n">
-        <v>545.6016328421458</v>
+        <v>531.2156373001309</v>
       </c>
       <c r="V42" t="n">
-        <v>545.6016328421458</v>
+        <v>531.2156373001309</v>
       </c>
       <c r="W42" t="n">
-        <v>519.649688781073</v>
+        <v>505.2636932390581</v>
       </c>
       <c r="X42" t="n">
-        <v>300.1416943977694</v>
+        <v>505.2636932390581</v>
       </c>
       <c r="Y42" t="n">
-        <v>300.1416943977694</v>
+        <v>505.2636932390581</v>
       </c>
     </row>
     <row r="43">
@@ -7570,40 +7570,40 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="N43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="O43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="P43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="R43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="S43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="T43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00015067566332</v>
+        <v>82.00015067566326</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86191206162249</v>
+        <v>77.86191206162246</v>
       </c>
       <c r="W43" t="n">
         <v>28.06539879618224</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543695</v>
+        <v>818.4119981543706</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153499</v>
+        <v>708.1156967153511</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3783222853724</v>
+        <v>610.3783222853733</v>
       </c>
       <c r="E44" t="n">
-        <v>478.593723189325</v>
+        <v>478.5937231893258</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646139</v>
+        <v>314.7683790646147</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
@@ -7649,28 +7649,28 @@
         <v>190.6484249575439</v>
       </c>
       <c r="K44" t="n">
-        <v>315.5433938502376</v>
+        <v>422.5827360122557</v>
       </c>
       <c r="L44" t="n">
-        <v>600.856589556258</v>
+        <v>707.8959317182762</v>
       </c>
       <c r="M44" t="n">
-        <v>681.7077131696033</v>
+        <v>788.7470553316215</v>
       </c>
       <c r="N44" t="n">
-        <v>757.0246564732654</v>
+        <v>864.0639986352836</v>
       </c>
       <c r="O44" t="n">
-        <v>1029.836988917032</v>
+        <v>1120.593512728528</v>
       </c>
       <c r="P44" t="n">
-        <v>1253.489149033495</v>
+        <v>1344.245672844991</v>
       </c>
       <c r="Q44" t="n">
-        <v>1403.269939809112</v>
+        <v>1344.245672844991</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.269939809112</v>
+        <v>1389.911125451009</v>
       </c>
       <c r="S44" t="n">
         <v>1403.269939809112</v>
@@ -7682,16 +7682,16 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.501942822391</v>
+        <v>1215.501942822392</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.531684905061</v>
+        <v>1095.531684905062</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172825</v>
+        <v>952.8312723172836</v>
       </c>
     </row>
     <row r="45">
@@ -7752,25 +7752,25 @@
         <v>785.2259476692657</v>
       </c>
       <c r="S45" t="n">
-        <v>673.9297683066468</v>
+        <v>632.9576268502783</v>
       </c>
       <c r="T45" t="n">
-        <v>673.9297683066468</v>
+        <v>632.9576268502783</v>
       </c>
       <c r="U45" t="n">
-        <v>434.3054534795269</v>
+        <v>393.3333120231584</v>
       </c>
       <c r="V45" t="n">
-        <v>434.3054534795269</v>
+        <v>393.3333120231584</v>
       </c>
       <c r="W45" t="n">
-        <v>408.3535094184541</v>
+        <v>367.3813679620856</v>
       </c>
       <c r="X45" t="n">
-        <v>188.8455150351505</v>
+        <v>367.3813679620856</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.8455150351505</v>
+        <v>367.3813679620856</v>
       </c>
     </row>
     <row r="46">
@@ -7822,25 +7822,25 @@
         <v>28.06539879618224</v>
       </c>
       <c r="P46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="R46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="S46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="T46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00015067566332</v>
+        <v>82.00015067566326</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86191206162249</v>
+        <v>77.86191206162246</v>
       </c>
       <c r="W46" t="n">
         <v>28.06539879618224</v>
@@ -8532,16 +8532,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>173.5713770459633</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7537581727915</v>
+        <v>163.6116624382006</v>
       </c>
       <c r="O9" t="n">
         <v>173.9674182222222</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.133805873377</v>
+        <v>292.1338058733769</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.459431452055014</v>
+        <v>195.9454765282923</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926863</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3371482120951</v>
+        <v>4.851103135857812</v>
       </c>
       <c r="F11" t="n">
         <v>225.0574857904724</v>
       </c>
       <c r="G11" t="n">
-        <v>240.6964710997769</v>
+        <v>52.21042602353964</v>
       </c>
       <c r="H11" t="n">
         <v>168.8802695799879</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700846</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294978</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.37664323013689</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692367</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204226</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.828748310926528</v>
+        <v>142.7380197596109</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>159.7546999762258</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>23.08363877470238</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1438035689089</v>
+        <v>204.1438035689088</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>195.9454765282923</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>49.95855152382295</v>
       </c>
       <c r="E14" t="n">
         <v>193.3371482120951</v>
       </c>
       <c r="F14" t="n">
-        <v>36.57144071423519</v>
+        <v>225.0574857904724</v>
       </c>
       <c r="G14" t="n">
-        <v>52.2104260235397</v>
+        <v>240.6964710997769</v>
       </c>
       <c r="H14" t="n">
         <v>168.8802695799879</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013695</v>
+        <v>49.37664323013689</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3243888969237</v>
+        <v>44.32438889692364</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V14" t="n">
-        <v>99.48671498491092</v>
+        <v>142.7380197596109</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762259</v>
+        <v>159.7546999762258</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1438035689089</v>
+        <v>15.65775849267155</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>330724.4981911724</v>
       </c>
       <c r="C2" t="n">
-        <v>330724.4981911724</v>
+        <v>330724.4981911723</v>
       </c>
       <c r="D2" t="n">
-        <v>330924.9743454458</v>
+        <v>330924.9743454459</v>
       </c>
       <c r="E2" t="n">
-        <v>284896.0453055425</v>
+        <v>284896.0453055429</v>
       </c>
       <c r="F2" t="n">
-        <v>284896.0453055426</v>
+        <v>284896.0453055427</v>
       </c>
       <c r="G2" t="n">
-        <v>331394.4558219514</v>
+        <v>331394.4558219515</v>
       </c>
       <c r="H2" t="n">
         <v>331394.4558219514</v>
       </c>
       <c r="I2" t="n">
-        <v>331394.4558219515</v>
+        <v>331394.4558219513</v>
       </c>
       <c r="J2" t="n">
-        <v>331394.4558219514</v>
+        <v>331394.4558219516</v>
       </c>
       <c r="K2" t="n">
-        <v>331394.4558219514</v>
+        <v>331394.4558219516</v>
       </c>
       <c r="L2" t="n">
-        <v>331394.4558219513</v>
+        <v>331394.4558219511</v>
       </c>
       <c r="M2" t="n">
         <v>331394.4558219513</v>
       </c>
       <c r="N2" t="n">
+        <v>331394.4558219514</v>
+      </c>
+      <c r="O2" t="n">
+        <v>331394.455821951</v>
+      </c>
+      <c r="P2" t="n">
         <v>331394.4558219512</v>
-      </c>
-      <c r="O2" t="n">
-        <v>331394.4558219512</v>
-      </c>
-      <c r="P2" t="n">
-        <v>331394.4558219511</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>279010.1432673798</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658172</v>
+        <v>95448.13167658167</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710103</v>
+        <v>143490.4163710104</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395821</v>
+        <v>96176.03924395808</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852185</v>
+        <v>46128.92849852183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134116</v>
+        <v>72249.07655134126</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>278809.5434581144</v>
       </c>
       <c r="F4" t="n">
-        <v>278809.5434581143</v>
+        <v>278809.5434581144</v>
       </c>
       <c r="G4" t="n">
         <v>349424.6097629185</v>
       </c>
       <c r="H4" t="n">
-        <v>349424.6097629185</v>
+        <v>349424.6097629184</v>
       </c>
       <c r="I4" t="n">
-        <v>349424.6097629185</v>
+        <v>349424.6097629184</v>
       </c>
       <c r="J4" t="n">
-        <v>350153.9756409439</v>
+        <v>350153.975640944</v>
       </c>
       <c r="K4" t="n">
-        <v>350153.9756409439</v>
+        <v>350153.975640944</v>
       </c>
       <c r="L4" t="n">
         <v>350137.7173335238</v>
@@ -26454,7 +26454,7 @@
         <v>349329.303575735</v>
       </c>
       <c r="O4" t="n">
-        <v>349716.3329031964</v>
+        <v>349716.3329031965</v>
       </c>
       <c r="P4" t="n">
         <v>349716.3329031965</v>
@@ -26479,37 +26479,37 @@
         <v>28641.35152034391</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.3515203439</v>
+        <v>28641.35152034391</v>
       </c>
       <c r="G5" t="n">
         <v>38671.63774774209</v>
       </c>
       <c r="H5" t="n">
-        <v>38671.63774774208</v>
+        <v>38671.63774774209</v>
       </c>
       <c r="I5" t="n">
         <v>38671.63774774209</v>
       </c>
       <c r="J5" t="n">
-        <v>47448.92101020607</v>
+        <v>47448.92101020608</v>
       </c>
       <c r="K5" t="n">
-        <v>47448.92101020606</v>
+        <v>47448.92101020608</v>
       </c>
       <c r="L5" t="n">
-        <v>47311.58842539589</v>
+        <v>47311.5884253959</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="O5" t="n">
-        <v>43796.55431105827</v>
+        <v>43796.55431105828</v>
       </c>
       <c r="P5" t="n">
-        <v>43796.55431105827</v>
+        <v>43796.55431105828</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96117.71552118289</v>
+        <v>-96122.18190538809</v>
       </c>
       <c r="C6" t="n">
-        <v>-96117.71552118289</v>
+        <v>-96122.18190538821</v>
       </c>
       <c r="D6" t="n">
-        <v>-96944.38543275211</v>
+        <v>-96947.51530926209</v>
       </c>
       <c r="E6" t="n">
-        <v>-301564.9929402956</v>
+        <v>-301874.9823437379</v>
       </c>
       <c r="F6" t="n">
-        <v>-22554.84967291557</v>
+        <v>-22864.8390763583</v>
       </c>
       <c r="G6" t="n">
-        <v>-152149.9233652909</v>
+        <v>-152149.9233652908</v>
       </c>
       <c r="H6" t="n">
-        <v>-56701.79168870913</v>
+        <v>-56701.79168870908</v>
       </c>
       <c r="I6" t="n">
-        <v>-56701.79168870908</v>
+        <v>-56701.7916887092</v>
       </c>
       <c r="J6" t="n">
         <v>-209698.8572002088</v>
       </c>
       <c r="K6" t="n">
-        <v>-66208.44082919859</v>
+        <v>-66208.44082919849</v>
       </c>
       <c r="L6" t="n">
-        <v>-162230.8891809266</v>
+        <v>-162230.8891809267</v>
       </c>
       <c r="M6" t="n">
-        <v>-104976.7549109065</v>
+        <v>-104976.7549109063</v>
       </c>
       <c r="N6" t="n">
-        <v>-58847.82641238465</v>
+        <v>-58847.82641238443</v>
       </c>
       <c r="O6" t="n">
-        <v>-134367.5079436446</v>
+        <v>-134367.507943645</v>
       </c>
       <c r="P6" t="n">
-        <v>-62118.43139230363</v>
+        <v>-62118.43139230352</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G2" t="n">
         <v>297.4519284452682</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="J2" t="n">
         <v>213.488029352129</v>
@@ -26716,10 +26716,10 @@
         <v>214.3979138113496</v>
       </c>
       <c r="M2" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="N2" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="O2" t="n">
         <v>241.0121589565495</v>
@@ -26808,28 +26808,28 @@
         <v>188.4860450762373</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="J4" t="n">
         <v>448.9472999335579</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9472999335579</v>
+        <v>448.947299933558</v>
       </c>
       <c r="L4" t="n">
-        <v>445.4304305024331</v>
+        <v>445.4304305024332</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4612548573206</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573206</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8174849522779</v>
+        <v>350.8174849522781</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8174849522779</v>
+        <v>350.8174849522781</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>119.3101645957271</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640193</v>
+        <v>94.17786475640196</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.2200490549478</v>
+        <v>120.2200490549476</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315231</v>
+        <v>57.66116062315228</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844946</v>
+        <v>63.13094927844963</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573205</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495737</v>
+        <v>90.35623009495725</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>119.3101645957271</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640193</v>
+        <v>94.17786475640196</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>224.246294399988</v>
+        <v>224.0686460122355</v>
       </c>
       <c r="U8" t="n">
         <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
-        <v>320.7021352213994</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
         <v>337.8964638257669</v>
@@ -27941,13 +27941,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>155.7257805249936</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>124.320347491772</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
@@ -27977,7 +27977,7 @@
         <v>31.13081250099125</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>145.1332942033654</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -27995,7 +27995,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>217.3129144394706</v>
+        <v>213.7960450083458</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J11" t="n">
-        <v>178.141763849541</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K11" t="n">
-        <v>178.141763849541</v>
+        <v>171.4445812629967</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3030568549884</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8182434465955</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>53.94195765711122</v>
+        <v>15.10088611163703</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="R11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="12">
@@ -28169,10 +28169,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28214,28 +28214,28 @@
         <v>6.873689458423154</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T12" t="n">
-        <v>26.4850122106692</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U12" t="n">
-        <v>101.862048362607</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V12" t="n">
-        <v>178.141763849541</v>
+        <v>94.78457729147041</v>
       </c>
       <c r="W12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X12" t="n">
-        <v>28.82686936323333</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.141763849541</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G13" t="n">
         <v>168.7008027322384</v>
@@ -28269,52 +28269,52 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J13" t="n">
-        <v>120.241573402485</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K13" t="n">
         <v>67.0332105846294</v>
       </c>
       <c r="L13" t="n">
-        <v>32.1559501061379</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="M13" t="n">
-        <v>178.141763849541</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N13" t="n">
-        <v>74.34461606114232</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="P13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2193142604766</v>
+        <v>134.5988968870209</v>
       </c>
       <c r="R13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K14" t="n">
-        <v>178.141763849541</v>
+        <v>6.73507708310327</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>41.6167994531158</v>
       </c>
       <c r="P14" t="n">
-        <v>160.7602011037069</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="R14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28415,10 +28415,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>157.8314205378977</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>125.7358448975026</v>
@@ -28427,7 +28427,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393112</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>155.7826604846344</v>
+        <v>3.105362283807924</v>
       </c>
       <c r="T15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.141763849541</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D16" t="n">
-        <v>151.6429184778551</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I16" t="n">
-        <v>178.141763849541</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J16" t="n">
-        <v>178.141763849541</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K16" t="n">
         <v>67.0332105846294</v>
       </c>
       <c r="L16" t="n">
-        <v>32.1559501061379</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="M16" t="n">
-        <v>178.141763849541</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N16" t="n">
         <v>16.52441230575096</v>
       </c>
       <c r="O16" t="n">
-        <v>37.48281412028791</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="P16" t="n">
-        <v>178.141763849541</v>
+        <v>140.5541377097404</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="17">
@@ -28588,10 +28588,10 @@
         <v>76.78688000567911</v>
       </c>
       <c r="K17" t="n">
-        <v>6.73507708310327</v>
+        <v>195.2211221593406</v>
       </c>
       <c r="L17" t="n">
-        <v>70.8723871181312</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,7 +28600,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>54.88635270026145</v>
       </c>
       <c r="P17" t="n">
         <v>15.10088611163703</v>
@@ -28609,10 +28609,10 @@
         <v>278.2044759766083</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4519284452682</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4519284452682</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T17" t="n">
         <v>297.4519284452682</v>
@@ -28643,13 +28643,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28691,25 +28691,25 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5914073600452</v>
+        <v>25.57289885689553</v>
       </c>
       <c r="T18" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U18" t="n">
-        <v>48.74202660261133</v>
+        <v>48.74202660261134</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.21853850077432</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.73941084256691</v>
+        <v>34.89824105778834</v>
       </c>
     </row>
     <row r="19">
@@ -28798,43 +28798,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I20" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
-        <v>245.2771821945193</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K20" t="n">
         <v>195.2211221593406</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>17.4638038315772</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28843,10 +28843,10 @@
         <v>15.10088611163703</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71843090037106</v>
+        <v>278.2044759766083</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4519284452681</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S20" t="n">
         <v>227.518407079678</v>
@@ -28855,19 +28855,19 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4519284452681</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28892,10 +28892,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7358448975026</v>
+        <v>107.1541007923599</v>
       </c>
       <c r="I21" t="n">
         <v>107.364552236389</v>
@@ -28925,7 +28925,7 @@
         <v>6.873689458423154</v>
       </c>
       <c r="R21" t="n">
-        <v>88.13425911507495</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
         <v>191.5914073600452</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.21853850077432</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>28.82686936323333</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.89824105778834</v>
       </c>
     </row>
     <row r="22">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="J23" t="n">
         <v>76.78688000567911</v>
@@ -29065,22 +29065,22 @@
         <v>6.73507708310327</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3030568549885</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O23" t="n">
-        <v>73.31396513791056</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5869311878744</v>
+        <v>15.10088611163703</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71843090037106</v>
+        <v>278.2044759766084</v>
       </c>
       <c r="R23" t="n">
         <v>194.8854391524908</v>
@@ -29092,19 +29092,19 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4519284452681</v>
+        <v>292.8423824240833</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I24" t="n">
-        <v>106.4241547163694</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
         <v>52.47830382393112</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R24" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283807921</v>
       </c>
       <c r="T24" t="n">
         <v>214.9710572869065</v>
@@ -29174,16 +29174,16 @@
         <v>237.2280716788486</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>232.8348339369598</v>
       </c>
       <c r="W24" t="n">
-        <v>78.21853850077417</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.8982410577882</v>
+        <v>34.89824105778834</v>
       </c>
     </row>
     <row r="25">
@@ -29308,7 +29308,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="N26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521287</v>
       </c>
       <c r="O26" t="n">
         <v>213.488029352129</v>
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>31.96879134629231</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>41.00014260303011</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446376404189</v>
@@ -29372,7 +29372,7 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
         <v>52.47830382393112</v>
@@ -29399,7 +29399,7 @@
         <v>6.873689458423154</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29414,7 +29414,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X27" t="n">
         <v>213.488029352129</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>203.1452150586706</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29439,7 +29439,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.488029352129</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29448,10 +29448,10 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H28" t="n">
-        <v>213.488029352129</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I28" t="n">
-        <v>213.488029352129</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J28" t="n">
         <v>120.241573402485</v>
@@ -29463,10 +29463,10 @@
         <v>32.1559501061379</v>
       </c>
       <c r="M28" t="n">
-        <v>79.60363767830997</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52441230575096</v>
+        <v>213.488029352129</v>
       </c>
       <c r="O28" t="n">
         <v>37.48281412028791</v>
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>169.1735807997197</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I30" t="n">
         <v>107.364552236389</v>
@@ -29633,16 +29633,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>84.1620166867207</v>
       </c>
       <c r="S30" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U30" t="n">
         <v>213.488029352129</v>
@@ -29654,7 +29654,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="X30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>213.488029352129</v>
@@ -29685,7 +29685,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H31" t="n">
-        <v>213.488029352129</v>
+        <v>206.9844770612474</v>
       </c>
       <c r="I31" t="n">
         <v>164.8538042427314</v>
@@ -29697,7 +29697,7 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L31" t="n">
-        <v>206.9844770612482</v>
+        <v>213.488029352129</v>
       </c>
       <c r="M31" t="n">
         <v>25.22122397250158</v>
@@ -29770,7 +29770,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="J32" t="n">
-        <v>192.2835716884559</v>
+        <v>192.2835716884566</v>
       </c>
       <c r="K32" t="n">
         <v>214.3979138113496</v>
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
         <v>125.7358448975026</v>
@@ -29873,7 +29873,7 @@
         <v>6.873689458423154</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5914073600452</v>
@@ -29882,13 +29882,13 @@
         <v>214.3979138113496</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3979138113496</v>
+        <v>60.08364816897384</v>
       </c>
       <c r="V33" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="W33" t="n">
-        <v>62.98989274857763</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="X33" t="n">
         <v>214.3979138113496</v>
@@ -29916,7 +29916,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>177.0952979129553</v>
       </c>
       <c r="G34" t="n">
         <v>168.7008027322384</v>
@@ -29925,10 +29925,10 @@
         <v>165.824644867158</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3979138113496</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3979138113496</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
         <v>67.0332105846294</v>
@@ -29943,7 +29943,7 @@
         <v>16.52441230575096</v>
       </c>
       <c r="O34" t="n">
-        <v>119.8325819663173</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="P34" t="n">
         <v>58.48196179900678</v>
@@ -29952,7 +29952,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4312113734075</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="S34" t="n">
         <v>214.3979138113496</v>
@@ -29983,55 +29983,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="C35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="D35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="E35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="F35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="G35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="H35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="I35" t="n">
-        <v>272.059074434502</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J35" t="n">
         <v>76.78688000567911</v>
       </c>
       <c r="K35" t="n">
-        <v>35.7315054074205</v>
+        <v>124.0864189989066</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2782666360717</v>
+        <v>213.2782666360719</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3835343485709</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71843090037106</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="R35" t="n">
-        <v>272.059074434502</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S35" t="n">
         <v>227.518407079678</v>
@@ -30040,19 +30040,19 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505464515833</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="W35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="X35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
     </row>
     <row r="36">
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>152.8920401903836</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>154.6899536977206</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30080,13 +30080,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R36" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30174,7 +30174,7 @@
         <v>32.1559501061379</v>
       </c>
       <c r="M37" t="n">
-        <v>25.22122397250158</v>
+        <v>60.77791890724122</v>
       </c>
       <c r="N37" t="n">
         <v>16.52441230575096</v>
@@ -30192,19 +30192,19 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S37" t="n">
-        <v>270.9952238677358</v>
+        <v>235.4385289329965</v>
       </c>
       <c r="T37" t="n">
         <v>223.761677253872</v>
       </c>
       <c r="U37" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,55 +30220,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="C38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="D38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="E38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="F38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="G38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="H38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="J38" t="n">
-        <v>148.017373717926</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K38" t="n">
         <v>6.73507708310327</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2782666360717</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3835343485712</v>
       </c>
       <c r="O38" t="n">
-        <v>225.9054012444092</v>
+        <v>90.98096690421147</v>
       </c>
       <c r="P38" t="n">
-        <v>15.10088611163703</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="R38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="S38" t="n">
         <v>227.518407079678</v>
@@ -30277,19 +30277,19 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U38" t="n">
-        <v>272.059074434502</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="W38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="X38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
     </row>
     <row r="39">
@@ -30302,22 +30302,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>119.6406572638456</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>107.364552236389</v>
@@ -30353,19 +30353,19 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280716788486</v>
+        <v>71.33680854687151</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30384,7 +30384,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>180.7393451854503</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30414,7 +30414,7 @@
         <v>25.22122397250158</v>
       </c>
       <c r="N40" t="n">
-        <v>52.08110724049035</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O40" t="n">
         <v>37.48281412028791</v>
@@ -30435,13 +30435,13 @@
         <v>223.761677253872</v>
       </c>
       <c r="U40" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,7 +30481,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78688000567911</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="K41" t="n">
         <v>241.0121589565495</v>
@@ -30493,13 +30493,13 @@
         <v>241.0121589565495</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>241.0121589565495</v>
+        <v>73.27113963721769</v>
       </c>
       <c r="Q41" t="n">
         <v>241.0121589565495</v>
@@ -30508,7 +30508,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="S41" t="n">
-        <v>237.4964185880877</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T41" t="n">
         <v>222.4661527464647</v>
@@ -30539,22 +30539,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>76.98605799872304</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.364552236389</v>
@@ -30587,13 +30587,13 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>177.3492717734503</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30602,7 +30602,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30642,7 +30642,7 @@
         <v>120.241573402485</v>
       </c>
       <c r="K43" t="n">
-        <v>67.0332105846294</v>
+        <v>170.1245317654715</v>
       </c>
       <c r="L43" t="n">
         <v>32.1559501061379</v>
@@ -30651,7 +30651,7 @@
         <v>25.22122397250158</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6157334865932</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O43" t="n">
         <v>37.48281412028791</v>
@@ -30721,7 +30721,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="K44" t="n">
-        <v>132.8916113181474</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="L44" t="n">
         <v>241.0121589565495</v>
@@ -30733,19 +30733,19 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>241.0121589565495</v>
+        <v>224.564867693396</v>
       </c>
       <c r="P44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="Q44" t="n">
+        <v>89.71843090037106</v>
+      </c>
+      <c r="R44" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="R44" t="n">
-        <v>194.8854391524908</v>
-      </c>
       <c r="S44" t="n">
-        <v>227.518407079678</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T44" t="n">
         <v>222.4661527464647</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30824,7 +30824,7 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>81.40818979105251</v>
+        <v>40.84576974924769</v>
       </c>
       <c r="T45" t="n">
         <v>214.9710572869065</v>
@@ -30839,7 +30839,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30894,7 +30894,7 @@
         <v>37.48281412028791</v>
       </c>
       <c r="P46" t="n">
-        <v>161.573282979849</v>
+        <v>161.5732829798489</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2193142604766</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>0.167855661100898</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>3.516869431124803</v>
+        <v>3.374773696533903</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3548838438619</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4066867664378</v>
+        <v>164.7095041798935</v>
       </c>
       <c r="L11" t="n">
-        <v>47.18298822124891</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M11" t="n">
+        <v>81.66780162964173</v>
+      </c>
+      <c r="N11" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="N11" t="n">
-        <v>76.07772050874962</v>
       </c>
       <c r="O11" t="n">
         <v>34.55585361291138</v>
       </c>
       <c r="P11" t="n">
-        <v>38.84107154547419</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.42333294916997</v>
+        <v>88.42333294917</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845729442</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.21488163109439</v>
+        <v>39.21488163109441</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90019044705602</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.9858137434032</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9205398770395</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>57.82020375539135</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6589497292531</v>
+        <v>140.6589497292532</v>
       </c>
       <c r="P13" t="n">
         <v>119.6598020505343</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>7.379582626544281</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3548838438619</v>
+        <v>101.354883843862</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4066867664377</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>47.18298822124891</v>
@@ -35656,16 +35656,16 @@
         <v>81.66780162964173</v>
       </c>
       <c r="N14" t="n">
-        <v>76.07772050874962</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O14" t="n">
-        <v>34.55585361291138</v>
+        <v>76.17265306602718</v>
       </c>
       <c r="P14" t="n">
-        <v>145.6593149920698</v>
+        <v>163.040877737904</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916995</v>
+        <v>88.42333294917</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5248431845729158</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.68458287756866</v>
+        <v>11.68458287756872</v>
       </c>
       <c r="D16" t="n">
-        <v>6.460268227144442</v>
+        <v>32.95911359883036</v>
       </c>
       <c r="E16" t="n">
-        <v>36.46562263731602</v>
+        <v>36.46562263731607</v>
       </c>
       <c r="F16" t="n">
-        <v>39.21488163109436</v>
+        <v>39.21488163109441</v>
       </c>
       <c r="G16" t="n">
-        <v>9.440961117302598</v>
+        <v>9.440961117302654</v>
       </c>
       <c r="H16" t="n">
-        <v>12.31711898238305</v>
+        <v>12.31711898238311</v>
       </c>
       <c r="I16" t="n">
-        <v>13.28795960680965</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90019044705596</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.9858137434032</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9205398770394</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.6589497292532</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505342</v>
+        <v>82.07217591073366</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.92244958906443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="L17" t="n">
-        <v>118.0553753393801</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M17" t="n">
         <v>81.66780162964173</v>
@@ -35896,7 +35896,7 @@
         <v>76.07772050874962</v>
       </c>
       <c r="O17" t="n">
-        <v>34.55585361291138</v>
+        <v>89.44220631317283</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,10 +35905,10 @@
         <v>188.4860450762373</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.9335213655902</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>74.98577569880344</v>
@@ -35978,7 +35978,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>168.4903021888402</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="L20" t="n">
-        <v>47.18298822124891</v>
+        <v>64.6467920528261</v>
       </c>
       <c r="M20" t="n">
         <v>81.66780162964173</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874962</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O20" t="n">
         <v>34.55585361291138</v>
@@ -36139,10 +36139,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.30138199368479</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43976948871861</v>
+        <v>56.43976948871867</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>188.4860450762374</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964173</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874962</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O23" t="n">
-        <v>107.8698187508219</v>
+        <v>34.55585361291138</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.30138199368479</v>
+        <v>42.69183597249998</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O24" t="n">
         <v>133.0233611548194</v>
@@ -36595,16 +36595,16 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7529522690257</v>
+        <v>206.7529522690258</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6710175733779</v>
+        <v>260.671017573378</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1558309817707</v>
+        <v>295.1558309817708</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5657498608786</v>
+        <v>289.5657498608783</v>
       </c>
       <c r="O26" t="n">
         <v>248.0438829650404</v>
@@ -36613,10 +36613,10 @@
         <v>198.387143240492</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7695984517579</v>
+        <v>123.769598451758</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963817</v>
+        <v>18.60259019963823</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>25.52829439370252</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.811888139904</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,10 +36744,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66338448497103</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63422510939763</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>54.38241370580839</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>196.9636170463781</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05681797872153</v>
+        <v>10.05681797872158</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7529522690257</v>
+        <v>206.7529522690258</v>
       </c>
       <c r="L29" t="n">
-        <v>260.6710175733779</v>
+        <v>260.671017573378</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1558309817707</v>
+        <v>295.1558309817708</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5657498608786</v>
+        <v>289.5657498608787</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0438829650403</v>
+        <v>248.0438829650404</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3871432404919</v>
+        <v>198.387143240492</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7695984517579</v>
+        <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963815</v>
+        <v>18.60259019963823</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.663384484971</v>
+        <v>41.15983219408945</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>174.8285269551103</v>
+        <v>181.3320792459911</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.0568179787215</v>
+        <v>10.05681797872158</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>115.4966916827768</v>
+        <v>115.4966916827774</v>
       </c>
       <c r="K32" t="n">
         <v>207.6628367282463</v>
@@ -37090,7 +37090,7 @@
         <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885877</v>
+        <v>19.51247465885874</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>38.16841569450865</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.54410956861822</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.15634040886454</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>82.34976784602942</v>
+        <v>176.9150996910616</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.96670243794209</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795246</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>28.99642832431723</v>
+        <v>117.3513419158033</v>
       </c>
       <c r="L35" t="n">
-        <v>260.4612548573206</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="M35" t="n">
         <v>81.66780162964173</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4612548573206</v>
+        <v>76.07772050874962</v>
       </c>
       <c r="O35" t="n">
         <v>34.55585361291138</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9581883228649</v>
+        <v>256.9581883228648</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3406435341308</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17363528201113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90852798291854</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.55669493473939</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.23049371224691</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4612548573206</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M38" t="n">
         <v>81.66780162964173</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874962</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4612548573206</v>
+        <v>125.5368205171228</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>256.9581883228648</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341309</v>
+        <v>182.3406435341308</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17363528201113</v>
+        <v>77.17363528201102</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37573,7 +37573,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90852798291865</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>35.55669493473939</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K41" t="n">
         <v>234.2770818734462</v>
@@ -37789,22 +37789,22 @@
         <v>322.6799605861912</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874962</v>
       </c>
       <c r="O41" t="n">
-        <v>34.55585361291138</v>
+        <v>275.5680125694609</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449124</v>
+        <v>58.17025352558066</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2937280561784</v>
+        <v>151.2937280561785</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12671980405867</v>
+        <v>46.12671980405869</v>
       </c>
       <c r="S41" t="n">
-        <v>9.978011508409775</v>
+        <v>13.49375187687155</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>103.0913211808421</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>103.0913211808422</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2252789508703</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K44" t="n">
-        <v>126.1565342350442</v>
+        <v>234.2770818734462</v>
       </c>
       <c r="L44" t="n">
         <v>288.1951471777984</v>
@@ -38029,19 +38029,19 @@
         <v>76.07772050874962</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5680125694608</v>
+        <v>259.1207213063074</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9112728449124</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2937280561784</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.12671980405869</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49375187687155</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>103.0913211808422</v>
+        <v>103.0913211808421</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
